--- a/data/trans_orig/P34_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34_R-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>124115</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>107607</v>
+        <v>109189</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>141141</v>
+        <v>141286</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4603709928946623</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3991372727924199</v>
+        <v>0.4050072765657226</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.523524255088448</v>
+        <v>0.524061336689255</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>79</v>
@@ -765,19 +765,19 @@
         <v>82093</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>67749</v>
+        <v>68455</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>98009</v>
+        <v>97811</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3147260849825994</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2597378378397168</v>
+        <v>0.2624418900324304</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3757481072455158</v>
+        <v>0.3749871991469526</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>205</v>
@@ -786,19 +786,19 @@
         <v>206208</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>181312</v>
+        <v>184002</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>228109</v>
+        <v>227980</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3887511712933065</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3418159829315429</v>
+        <v>0.3468880199743971</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4300401165966896</v>
+        <v>0.4297976749929821</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>145483</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>128457</v>
+        <v>128312</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>161991</v>
+        <v>160409</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5396290071053377</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4764757449115519</v>
+        <v>0.4759386633107449</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.60086272720758</v>
+        <v>0.5949927234342773</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>166</v>
@@ -836,19 +836,19 @@
         <v>178745</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>162829</v>
+        <v>163027</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>193089</v>
+        <v>192383</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6852739150174006</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6242518927544842</v>
+        <v>0.6250128008530473</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7402621621602831</v>
+        <v>0.7375581099675695</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>308</v>
@@ -857,19 +857,19 @@
         <v>324228</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>302327</v>
+        <v>302456</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>349124</v>
+        <v>346434</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6112488287066935</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5699598834033104</v>
+        <v>0.5702023250070178</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6581840170684572</v>
+        <v>0.653111980025603</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>181123</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>160768</v>
+        <v>159726</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>203158</v>
+        <v>203512</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3704673172282862</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3288346163141909</v>
+        <v>0.3267032514262294</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.415538131588347</v>
+        <v>0.4162622932433103</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>142</v>
@@ -982,19 +982,19 @@
         <v>142496</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>122282</v>
+        <v>123943</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>162613</v>
+        <v>161831</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2833072265365955</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2431175750296059</v>
+        <v>0.2464208015476013</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3233043937963256</v>
+        <v>0.3217478919184826</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>311</v>
@@ -1003,19 +1003,19 @@
         <v>323618</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>298427</v>
+        <v>294396</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>355435</v>
+        <v>352233</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3262690993221366</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3008708386951973</v>
+        <v>0.2968070193931087</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3583458923695286</v>
+        <v>0.3551182298249103</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>307780</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>285745</v>
+        <v>285391</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>328135</v>
+        <v>329177</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6295326827717138</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5844618684116529</v>
+        <v>0.5837377067566898</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.671165383685809</v>
+        <v>0.6732967485737704</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>356</v>
@@ -1053,19 +1053,19 @@
         <v>360477</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>340360</v>
+        <v>341142</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>380691</v>
+        <v>379030</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7166927734634045</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6766956062036744</v>
+        <v>0.6782521080815174</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7568824249703942</v>
+        <v>0.7535791984523986</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>648</v>
@@ -1074,19 +1074,19 @@
         <v>668258</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>636441</v>
+        <v>639643</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>693449</v>
+        <v>697480</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6737309006778635</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6416541076304715</v>
+        <v>0.6448817701750896</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6991291613048027</v>
+        <v>0.7031929806068913</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>143052</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>124895</v>
+        <v>125212</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>160980</v>
+        <v>161929</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4503362378567421</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3931763237176705</v>
+        <v>0.3941761705771084</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.506774465908145</v>
+        <v>0.5097626025638818</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>128</v>
@@ -1199,19 +1199,19 @@
         <v>127650</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>109367</v>
+        <v>111967</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>145736</v>
+        <v>146563</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.380576430041804</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3260686605287384</v>
+        <v>0.3338205330600068</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4344979695653997</v>
+        <v>0.4369645857541444</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>270</v>
@@ -1220,19 +1220,19 @@
         <v>270702</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>246556</v>
+        <v>244371</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>293812</v>
+        <v>295140</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4145079670044677</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3775345041941359</v>
+        <v>0.3741889162523011</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4498945991525963</v>
+        <v>0.4519290965812608</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>174604</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>156676</v>
+        <v>155727</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>192761</v>
+        <v>192444</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5496637621432579</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4932255340918549</v>
+        <v>0.4902373974361181</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6068236762823295</v>
+        <v>0.6058238294228914</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>207</v>
@@ -1270,19 +1270,19 @@
         <v>207762</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>189676</v>
+        <v>188849</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>226045</v>
+        <v>223445</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.619423569958196</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5655020304346001</v>
+        <v>0.5630354142458556</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6739313394712615</v>
+        <v>0.6661794669399932</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>374</v>
@@ -1291,19 +1291,19 @@
         <v>382366</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>359256</v>
+        <v>357928</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>406512</v>
+        <v>408697</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5854920329955323</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5501054008474036</v>
+        <v>0.548070903418739</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6224654958058637</v>
+        <v>0.6258110837476989</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>159884</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>141787</v>
+        <v>143296</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>180248</v>
+        <v>180257</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4468235654447422</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3962491732450233</v>
+        <v>0.4004663206641113</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5037346980531401</v>
+        <v>0.5037613820737401</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>139</v>
@@ -1416,19 +1416,19 @@
         <v>135393</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>117476</v>
+        <v>116928</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>154117</v>
+        <v>152563</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3655918443373777</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3172114107405488</v>
+        <v>0.315732006981701</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4161506482084305</v>
+        <v>0.4119543531654175</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>304</v>
@@ -1437,19 +1437,19 @@
         <v>295277</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>271595</v>
+        <v>268129</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>322933</v>
+        <v>320301</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.40550956805487</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3729864853767274</v>
+        <v>0.3682272421029886</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4434904668099022</v>
+        <v>0.4398758206582949</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>197939</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>177575</v>
+        <v>177566</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>216036</v>
+        <v>214527</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5531764345552578</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4962653019468599</v>
+        <v>0.4962386179262599</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6037508267549767</v>
+        <v>0.599533679335889</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>244</v>
@@ -1487,19 +1487,19 @@
         <v>234947</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>216223</v>
+        <v>217777</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>252864</v>
+        <v>253412</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6344081556626223</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5838493517915696</v>
+        <v>0.5880456468345825</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6827885892594513</v>
+        <v>0.684267993018299</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>440</v>
@@ -1508,19 +1508,19 @@
         <v>432886</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>405230</v>
+        <v>407862</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>456568</v>
+        <v>460034</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.59449043194513</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5565095331900979</v>
+        <v>0.5601241793417051</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6270135146232726</v>
+        <v>0.6317727578970114</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>43032</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32679</v>
+        <v>32509</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>55889</v>
+        <v>55021</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2135392093001942</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1621618084877651</v>
+        <v>0.1613201666374619</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2773383384407982</v>
+        <v>0.273031151063064</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -1633,19 +1633,19 @@
         <v>38891</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27992</v>
+        <v>28695</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>50942</v>
+        <v>51899</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1872760663272272</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1347901246852515</v>
+        <v>0.1381784576072246</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2453056804374697</v>
+        <v>0.2499140720799453</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>82</v>
@@ -1654,19 +1654,19 @@
         <v>81923</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>68282</v>
+        <v>67630</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>99395</v>
+        <v>97899</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2002102926937483</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1668735762806532</v>
+        <v>0.1652777339853741</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2429089010626571</v>
+        <v>0.2392514844222876</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>158487</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>145630</v>
+        <v>146498</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>168840</v>
+        <v>169010</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7864607906998058</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7226616615592022</v>
+        <v>0.7269688489369357</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8378381915122353</v>
+        <v>0.838679833362538</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>162</v>
@@ -1704,19 +1704,19 @@
         <v>168777</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>156726</v>
+        <v>155769</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>179676</v>
+        <v>178973</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8127239336727727</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.75469431956253</v>
+        <v>0.7500859279200545</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8652098753147485</v>
+        <v>0.8618215423927754</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>320</v>
@@ -1725,19 +1725,19 @@
         <v>327264</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>309792</v>
+        <v>311288</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>340905</v>
+        <v>341557</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7997897073062517</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7570910989373428</v>
+        <v>0.7607485155777123</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8331264237193464</v>
+        <v>0.8347222660146257</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>127401</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>112157</v>
+        <v>110987</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>143572</v>
+        <v>144448</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4722209977557259</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4157151313614597</v>
+        <v>0.4113780507949527</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5321589420918045</v>
+        <v>0.5354053560736169</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>115</v>
@@ -1850,19 +1850,19 @@
         <v>120476</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>103180</v>
+        <v>103938</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>136684</v>
+        <v>137096</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4389584869270951</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3759414635146739</v>
+        <v>0.3787029844287904</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4980153743736802</v>
+        <v>0.4995148370613156</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>244</v>
@@ -1871,19 +1871,19 @@
         <v>247877</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>226269</v>
+        <v>224351</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>270289</v>
+        <v>272669</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4554471536554174</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.415744105738147</v>
+        <v>0.4122197966680743</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4966273734928646</v>
+        <v>0.500999068276155</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>142391</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>126220</v>
+        <v>125344</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>157635</v>
+        <v>158805</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5277790022442741</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4678410579081955</v>
+        <v>0.4645946439263833</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5842848686385402</v>
+        <v>0.5886219492050473</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>152</v>
@@ -1921,19 +1921,19 @@
         <v>153982</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>137774</v>
+        <v>137362</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>171278</v>
+        <v>170520</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5610415130729048</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5019846256263197</v>
+        <v>0.5004851629386841</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6240585364853261</v>
+        <v>0.621297015571209</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>288</v>
@@ -1942,19 +1942,19 @@
         <v>296373</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>273961</v>
+        <v>271581</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>317981</v>
+        <v>319899</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5445528463445826</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5033726265071352</v>
+        <v>0.4990009317238449</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5842558942618531</v>
+        <v>0.5877802033319257</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>267580</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>243000</v>
+        <v>243099</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>292877</v>
+        <v>292570</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4432878182767588</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4025679272533979</v>
+        <v>0.4027312493458104</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4851960590496536</v>
+        <v>0.4846876595934078</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>219</v>
@@ -2067,19 +2067,19 @@
         <v>222569</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>199635</v>
+        <v>201239</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>249131</v>
+        <v>245199</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3547634594226006</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3182076345670604</v>
+        <v>0.3207643756040199</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3971030121452072</v>
+        <v>0.3908349474031892</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>489</v>
@@ -2088,19 +2088,19 @@
         <v>490149</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>455850</v>
+        <v>456206</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>522741</v>
+        <v>526055</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3981717978759844</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3703089865053159</v>
+        <v>0.3705983218446225</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4246482400246856</v>
+        <v>0.4273400127340696</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>336046</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>310749</v>
+        <v>311056</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>360626</v>
+        <v>360527</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5567121817232412</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5148039409503464</v>
+        <v>0.5153123404065922</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5974320727466021</v>
+        <v>0.5972687506541896</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>391</v>
@@ -2138,19 +2138,19 @@
         <v>404803</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>378241</v>
+        <v>382173</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>427737</v>
+        <v>426133</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6452365405773994</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.602896987854793</v>
+        <v>0.6091650525968105</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6817923654329396</v>
+        <v>0.6792356243959795</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>707</v>
@@ -2159,19 +2159,19 @@
         <v>740849</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>708257</v>
+        <v>704943</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>775148</v>
+        <v>774792</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6018282021240156</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5753517599753143</v>
+        <v>0.5726599872659304</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6296910134946837</v>
+        <v>0.6294016781553774</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>211109</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>186397</v>
+        <v>188227</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>234386</v>
+        <v>236689</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2875142938079307</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2538589848784835</v>
+        <v>0.2563515949795624</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3192164093308682</v>
+        <v>0.3223535202296028</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>171</v>
@@ -2284,19 +2284,19 @@
         <v>178574</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>157654</v>
+        <v>155789</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>204263</v>
+        <v>203406</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2306789209731192</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2036547232457035</v>
+        <v>0.2012450774909181</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2638629932024847</v>
+        <v>0.2627564748845425</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>385</v>
@@ -2305,19 +2305,19 @@
         <v>389683</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>359648</v>
+        <v>357760</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>425678</v>
+        <v>425170</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2583454483107033</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2384334438615303</v>
+        <v>0.2371819309602133</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2822085235382896</v>
+        <v>0.2818718480441191</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>523145</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>499868</v>
+        <v>497565</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>547857</v>
+        <v>546027</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7124857061920693</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6807835906691319</v>
+        <v>0.6776464797703975</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7461410151215169</v>
+        <v>0.7436484050204381</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>565</v>
@@ -2355,19 +2355,19 @@
         <v>595551</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>569862</v>
+        <v>570719</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>616471</v>
+        <v>618336</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7693210790268808</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7361370067975155</v>
+        <v>0.7372435251154577</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7963452767542966</v>
+        <v>0.7987549225090821</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1078</v>
@@ -2376,19 +2376,19 @@
         <v>1118697</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1082702</v>
+        <v>1083210</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1148732</v>
+        <v>1150620</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7416545516892967</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7177914764617104</v>
+        <v>0.7181281519558805</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7615665561384698</v>
+        <v>0.7628180690397862</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>1257296</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1197769</v>
+        <v>1205613</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1312240</v>
+        <v>1318786</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3876747984372205</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3693203380989286</v>
+        <v>0.3717388337818524</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4046164673415439</v>
+        <v>0.4066347531794666</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1029</v>
@@ -2501,19 +2501,19 @@
         <v>1048141</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>997421</v>
+        <v>996949</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1101150</v>
+        <v>1099726</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3125807779298274</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2974546558524602</v>
+        <v>0.2973140839825996</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3283892909791853</v>
+        <v>0.3279646088152955</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2290</v>
@@ -2522,19 +2522,19 @@
         <v>2305437</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2232094</v>
+        <v>2219513</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2378820</v>
+        <v>2380012</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3495015724036676</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3383829094224306</v>
+        <v>0.3364755464362655</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3606263779104635</v>
+        <v>0.3608071005435427</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>1985875</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1930931</v>
+        <v>1924385</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2045402</v>
+        <v>2037558</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6123252015627795</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5953835326584561</v>
+        <v>0.5933652468205334</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6306796619010714</v>
+        <v>0.6282611662181478</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2243</v>
@@ -2572,19 +2572,19 @@
         <v>2305045</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2252036</v>
+        <v>2253460</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2355765</v>
+        <v>2356237</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6874192220701727</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6716107090208148</v>
+        <v>0.6720353911847045</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7025453441475398</v>
+        <v>0.7026859160174004</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4163</v>
@@ -2593,19 +2593,19 @@
         <v>4290920</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4217537</v>
+        <v>4216345</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4364263</v>
+        <v>4376844</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6504984275963324</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6393736220895365</v>
+        <v>0.6391928994564573</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6616170905775692</v>
+        <v>0.6635244535637345</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>82148</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>67018</v>
+        <v>65781</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>99037</v>
+        <v>97549</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2903712295625485</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2368882665047044</v>
+        <v>0.2325165144525545</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3500674860632279</v>
+        <v>0.344806914196468</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>67</v>
@@ -2962,19 +2962,19 @@
         <v>73331</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>58446</v>
+        <v>58307</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>89183</v>
+        <v>88406</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.26561656812784</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2116984885966751</v>
+        <v>0.2111962078681403</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3230319938189156</v>
+        <v>0.3202178887199447</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>146</v>
@@ -2983,19 +2983,19 @@
         <v>155480</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>133845</v>
+        <v>133626</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>176510</v>
+        <v>178832</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2781450928587935</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.239440907148239</v>
+        <v>0.2390492626893006</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3157663208171946</v>
+        <v>0.3199211042012936</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>200760</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>183871</v>
+        <v>185359</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>215890</v>
+        <v>217127</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7096287704374515</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6499325139367722</v>
+        <v>0.6551930858035321</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7631117334952956</v>
+        <v>0.7674834855474456</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>179</v>
@@ -3033,19 +3033,19 @@
         <v>202749</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>186897</v>
+        <v>187674</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>217634</v>
+        <v>217773</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.73438343187216</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6769680061810844</v>
+        <v>0.6797821112800556</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7883015114033249</v>
+        <v>0.7888037921318597</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>370</v>
@@ -3054,19 +3054,19 @@
         <v>403508</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>382478</v>
+        <v>380156</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>425143</v>
+        <v>425362</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7218549071412065</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6842336791828051</v>
+        <v>0.6800788957987064</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7605590928517608</v>
+        <v>0.7609507373106994</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>171781</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>150516</v>
+        <v>151063</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>196307</v>
+        <v>198449</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3404480378211752</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2983037523139147</v>
+        <v>0.2993871639945704</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3890552581731792</v>
+        <v>0.3933005748943599</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>178</v>
@@ -3179,19 +3179,19 @@
         <v>192783</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>169835</v>
+        <v>170582</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>215120</v>
+        <v>214956</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3695418064942671</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3255533229079819</v>
+        <v>0.3269847227287656</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4123583276565479</v>
+        <v>0.4120443456152204</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>335</v>
@@ -3200,19 +3200,19 @@
         <v>364565</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>334715</v>
+        <v>333218</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>396245</v>
+        <v>392813</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3552374159015719</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3261518042411576</v>
+        <v>0.3246931402550758</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3861069283335042</v>
+        <v>0.3827632617296827</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>332793</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>308267</v>
+        <v>306125</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>354058</v>
+        <v>353511</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6595519621788248</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6109447418268208</v>
+        <v>0.6066994251056401</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7016962476860853</v>
+        <v>0.7006128360054298</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>300</v>
@@ -3250,19 +3250,19 @@
         <v>328899</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>306562</v>
+        <v>306726</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>351847</v>
+        <v>351100</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6304581935057328</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5876416723434523</v>
+        <v>0.5879556543847795</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6744466770920181</v>
+        <v>0.6730152772712343</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>614</v>
@@ -3271,19 +3271,19 @@
         <v>661691</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>630011</v>
+        <v>633443</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>691541</v>
+        <v>693038</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6447625840984281</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.613893071666495</v>
+        <v>0.6172367382703172</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6738481957588424</v>
+        <v>0.6753068597449241</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>87439</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>71842</v>
+        <v>71606</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>105141</v>
+        <v>103766</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2709756707326846</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2226402111675533</v>
+        <v>0.2219084830989453</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3258346562540976</v>
+        <v>0.3215720112117247</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>81</v>
@@ -3396,19 +3396,19 @@
         <v>86907</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>71172</v>
+        <v>71956</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>102506</v>
+        <v>105122</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2548455107839123</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2087026876901312</v>
+        <v>0.2110008444599084</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3005875129175631</v>
+        <v>0.3082585178089395</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>165</v>
@@ -3417,19 +3417,19 @@
         <v>174347</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>150960</v>
+        <v>153048</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>196479</v>
+        <v>200576</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2626877605194635</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2274512385035938</v>
+        <v>0.2305970962615508</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2960344683033264</v>
+        <v>0.3022079799342189</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>235244</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>217542</v>
+        <v>218917</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>250841</v>
+        <v>251077</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7290243292673153</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6741653437459029</v>
+        <v>0.6784279887882753</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7773597888324468</v>
+        <v>0.7780915169010547</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>236</v>
@@ -3467,19 +3467,19 @@
         <v>254113</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>238514</v>
+        <v>235898</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>269848</v>
+        <v>269064</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7451544892160876</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.699412487082437</v>
+        <v>0.6917414821910609</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.791297312309869</v>
+        <v>0.7889991555400918</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>470</v>
@@ -3488,19 +3488,19 @@
         <v>489356</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>467224</v>
+        <v>463127</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>512743</v>
+        <v>510655</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7373122394805365</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7039655316966735</v>
+        <v>0.6977920200657811</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7725487614964064</v>
+        <v>0.7694029037384491</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>91564</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>75630</v>
+        <v>74566</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>109268</v>
+        <v>109427</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2448362059273852</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2022293462316659</v>
+        <v>0.1993833020299051</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2921736175512138</v>
+        <v>0.2926005832266336</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>97</v>
@@ -3613,19 +3613,19 @@
         <v>101993</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>83588</v>
+        <v>84858</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>120932</v>
+        <v>120762</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2641657367180705</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2164951462617224</v>
+        <v>0.2197844890241007</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3132183979427912</v>
+        <v>0.312777793118792</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>184</v>
@@ -3634,19 +3634,19 @@
         <v>193558</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>169721</v>
+        <v>169599</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>221726</v>
+        <v>220755</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2546549981702962</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2232940410331964</v>
+        <v>0.2231340796690193</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2917154181658282</v>
+        <v>0.2904371545617676</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>282418</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>264714</v>
+        <v>264555</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>298352</v>
+        <v>299416</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7551637940726148</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.707826382448786</v>
+        <v>0.7073994167733664</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.797770653768334</v>
+        <v>0.800616697970095</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>271</v>
@@ -3684,19 +3684,19 @@
         <v>284102</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>265163</v>
+        <v>265333</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>302507</v>
+        <v>301237</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7358342632819295</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6867816020572088</v>
+        <v>0.6872222068812078</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7835048537382777</v>
+        <v>0.7802155109758985</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>528</v>
@@ -3705,19 +3705,19 @@
         <v>566520</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>538352</v>
+        <v>539323</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>590357</v>
+        <v>590479</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7453450018297039</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7082845818341723</v>
+        <v>0.7095628454382324</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7767059589668039</v>
+        <v>0.7768659203309808</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>73408</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>59636</v>
+        <v>60589</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>87063</v>
+        <v>88898</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3486304365515631</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2832226897994758</v>
+        <v>0.287751800809573</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4134833411273131</v>
+        <v>0.4221974694171714</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>66</v>
@@ -3830,19 +3830,19 @@
         <v>67603</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>54903</v>
+        <v>55161</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>81772</v>
+        <v>83284</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3078596649621894</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2500225074069465</v>
+        <v>0.2512003032511336</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3723851980539918</v>
+        <v>0.3792701307930562</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>133</v>
@@ -3851,19 +3851,19 @@
         <v>141011</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>121461</v>
+        <v>122764</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>161722</v>
+        <v>163628</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3278171326036738</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2823679768741854</v>
+        <v>0.2853969197901976</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3759652996982948</v>
+        <v>0.3803960412474279</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>137153</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>123498</v>
+        <v>121663</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>150925</v>
+        <v>149972</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6513695634484369</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.586516658872687</v>
+        <v>0.5778025305828286</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7167773102005242</v>
+        <v>0.7122481991904266</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>146</v>
@@ -3901,19 +3901,19 @@
         <v>151988</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>137819</v>
+        <v>136307</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>164688</v>
+        <v>164430</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6921403350378106</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6276148019460082</v>
+        <v>0.620729869206944</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7499774925930535</v>
+        <v>0.7487996967488664</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>273</v>
@@ -3922,19 +3922,19 @@
         <v>289141</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>268430</v>
+        <v>266524</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>308691</v>
+        <v>307388</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6721828673963263</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6240347003017052</v>
+        <v>0.619603958752572</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7176320231258145</v>
+        <v>0.7146030802098023</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>85004</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>70699</v>
+        <v>68826</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>101496</v>
+        <v>102236</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3102551188072689</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.258044180555816</v>
+        <v>0.2512086276076592</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.370450188130121</v>
+        <v>0.3731491516284307</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>63</v>
@@ -4047,19 +4047,19 @@
         <v>68281</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>53992</v>
+        <v>54352</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>84732</v>
+        <v>84491</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2438338991141418</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1928055432448302</v>
+        <v>0.1940939745383175</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3025809893938363</v>
+        <v>0.3017196701253182</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>142</v>
@@ -4068,19 +4068,19 @@
         <v>153285</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>132507</v>
+        <v>132853</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>176668</v>
+        <v>176167</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2766818381035757</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2391770865085785</v>
+        <v>0.2398025516352392</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3188882199782481</v>
+        <v>0.317984750178547</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>188977</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>172485</v>
+        <v>171745</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>203282</v>
+        <v>205155</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6897448811927311</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6295498118698789</v>
+        <v>0.6268508483715693</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7419558194441839</v>
+        <v>0.7487913723923408</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>206</v>
@@ -4118,19 +4118,19 @@
         <v>211750</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>195299</v>
+        <v>195540</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>226039</v>
+        <v>225679</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7561661008858582</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6974190106061638</v>
+        <v>0.6982803298746818</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.80719445675517</v>
+        <v>0.8059060254616826</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>388</v>
@@ -4139,19 +4139,19 @@
         <v>400727</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>377344</v>
+        <v>377845</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>421505</v>
+        <v>421159</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7233181618964243</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6811117800217519</v>
+        <v>0.682015249821453</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7608229134914216</v>
+        <v>0.7601974483647608</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>226154</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>200313</v>
+        <v>202044</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>253156</v>
+        <v>252767</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3432961595851919</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3040713527836068</v>
+        <v>0.306697977962186</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3842850985065935</v>
+        <v>0.3836941165338827</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>168</v>
@@ -4264,19 +4264,19 @@
         <v>181899</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>159383</v>
+        <v>159026</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>207482</v>
+        <v>206593</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2649629274601997</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2321648647532741</v>
+        <v>0.2316452924229103</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3022283813694979</v>
+        <v>0.3009324768630502</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>379</v>
@@ -4285,19 +4285,19 @@
         <v>408053</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>372563</v>
+        <v>374837</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>444804</v>
+        <v>445190</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3033220096155753</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2769412955594489</v>
+        <v>0.278631655908097</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3306409165701591</v>
+        <v>0.3309273109848489</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>432617</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>405615</v>
+        <v>406004</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>458458</v>
+        <v>456727</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6567038404148081</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6157149014934066</v>
+        <v>0.6163058834661173</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6959286472163932</v>
+        <v>0.693302022037814</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>461</v>
@@ -4335,19 +4335,19 @@
         <v>504609</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>479026</v>
+        <v>479915</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>527125</v>
+        <v>527482</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7350370725398003</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6977716186305022</v>
+        <v>0.6990675231369499</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7678351352467259</v>
+        <v>0.7683547075770897</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>864</v>
@@ -4356,19 +4356,19 @@
         <v>937226</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>900475</v>
+        <v>900089</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>972716</v>
+        <v>970442</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6966779903844247</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6693590834298409</v>
+        <v>0.6690726890151512</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7230587044405511</v>
+        <v>0.721368344091903</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>258823</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>232492</v>
+        <v>233713</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>288162</v>
+        <v>289952</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3337167738937444</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2997666604713329</v>
+        <v>0.3013402356699516</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3715457008374374</v>
+        <v>0.3738532468183263</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>244</v>
@@ -4481,19 +4481,19 @@
         <v>265680</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>236618</v>
+        <v>237043</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>292738</v>
+        <v>291774</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3233878091551192</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2880133425002759</v>
+        <v>0.2885300902214524</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3563229825499445</v>
+        <v>0.3551493541930058</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>480</v>
@@ -4502,19 +4502,19 @@
         <v>524504</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>489159</v>
+        <v>485698</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>568154</v>
+        <v>566117</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3284036234507913</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3062736789022543</v>
+        <v>0.3041064022075804</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3557342948827798</v>
+        <v>0.3544584086809238</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>516754</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>487415</v>
+        <v>485625</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>543085</v>
+        <v>541864</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6662832261062556</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6284542991625626</v>
+        <v>0.6261467531816735</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7002333395286671</v>
+        <v>0.6986597643300484</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>511</v>
@@ -4552,19 +4552,19 @@
         <v>555873</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>528815</v>
+        <v>529779</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>584935</v>
+        <v>584510</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6766121908448809</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6436770174500553</v>
+        <v>0.6448506458069941</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7119866574997241</v>
+        <v>0.711469909778547</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>989</v>
@@ -4573,19 +4573,19 @@
         <v>1072627</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1028977</v>
+        <v>1031014</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1107972</v>
+        <v>1111433</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6715963765492087</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6442657051172201</v>
+        <v>0.6455415913190762</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6937263210977457</v>
+        <v>0.6958935977924197</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>1076322</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1021821</v>
+        <v>1016928</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1134753</v>
+        <v>1134576</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3162827125521234</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3002672945178352</v>
+        <v>0.2988294681374903</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3334530710047529</v>
+        <v>0.3334010025642102</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>964</v>
@@ -4698,19 +4698,19 @@
         <v>1038479</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>982689</v>
+        <v>980561</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1097956</v>
+        <v>1090976</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2939734526590244</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2781805060108101</v>
+        <v>0.2775779116784686</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3108101819283514</v>
+        <v>0.3088344503183942</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1964</v>
@@ -4719,19 +4719,19 @@
         <v>2114801</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2030632</v>
+        <v>2038234</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2189644</v>
+        <v>2188042</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3049197697790488</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2927839713769637</v>
+        <v>0.2938800589553052</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3157109080424497</v>
+        <v>0.3154798960279724</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>2326716</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2268285</v>
+        <v>2268462</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2381217</v>
+        <v>2386110</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6837172874478766</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6665469289952473</v>
+        <v>0.66659899743579</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6997327054821648</v>
+        <v>0.7011705318625098</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2310</v>
@@ -4769,19 +4769,19 @@
         <v>2494081</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2434604</v>
+        <v>2441584</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2549871</v>
+        <v>2551999</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7060265473409756</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6891898180716485</v>
+        <v>0.6911655496816058</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7218194939891893</v>
+        <v>0.722422088321532</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4496</v>
@@ -4790,19 +4790,19 @@
         <v>4820797</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4745954</v>
+        <v>4747556</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4904966</v>
+        <v>4897364</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6950802302209511</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6842890919575502</v>
+        <v>0.6845201039720274</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7072160286230362</v>
+        <v>0.7061199410446944</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>97634</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>82481</v>
+        <v>82543</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>114085</v>
+        <v>115587</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3354530807980912</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2833876763393358</v>
+        <v>0.2836033383241136</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3919739580972224</v>
+        <v>0.3971340211774275</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>68</v>
@@ -5159,19 +5159,19 @@
         <v>75351</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>59765</v>
+        <v>61695</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>91673</v>
+        <v>92093</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2627311180650045</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2083883755442273</v>
+        <v>0.2151168102381076</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3196414774705215</v>
+        <v>0.321106422824691</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>161</v>
@@ -5180,19 +5180,19 @@
         <v>172985</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>150242</v>
+        <v>149864</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>196414</v>
+        <v>195745</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.299359788569358</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2600020150692392</v>
+        <v>0.25934754857772</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3399043155006636</v>
+        <v>0.3387462722319075</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>193418</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>176967</v>
+        <v>175465</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>208571</v>
+        <v>208509</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6645469192019089</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6080260419027775</v>
+        <v>0.6028659788225724</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7166123236606642</v>
+        <v>0.7163966616758864</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>207</v>
@@ -5230,19 +5230,19 @@
         <v>211447</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>195125</v>
+        <v>194705</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>227033</v>
+        <v>225103</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7372688819349955</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6803585225294786</v>
+        <v>0.678893577175309</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7916116244557727</v>
+        <v>0.7848831897618924</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>378</v>
@@ -5251,19 +5251,19 @@
         <v>404865</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>381436</v>
+        <v>382105</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>427608</v>
+        <v>427986</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7006402114306419</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6600956844993364</v>
+        <v>0.6612537277680925</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7399979849307609</v>
+        <v>0.74065245142228</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>126513</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>106534</v>
+        <v>107909</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>146076</v>
+        <v>146073</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2517293046150452</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2119769489026475</v>
+        <v>0.2147119390009808</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2906543531726836</v>
+        <v>0.2906483252774565</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>128</v>
@@ -5376,19 +5376,19 @@
         <v>146033</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>126299</v>
+        <v>125268</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>169420</v>
+        <v>167709</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2791773361923671</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2414506431133464</v>
+        <v>0.2394791329524819</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3238876739571835</v>
+        <v>0.3206159740300571</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>250</v>
@@ -5397,19 +5397,19 @@
         <v>272546</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>241955</v>
+        <v>243863</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>301079</v>
+        <v>302078</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2657277398538482</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2359015561594247</v>
+        <v>0.2377622900187758</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2935467413363806</v>
+        <v>0.2945204081209304</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>376062</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>356499</v>
+        <v>356502</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>396041</v>
+        <v>394666</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7482706953849548</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7093456468273164</v>
+        <v>0.7093516747225435</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7880230510973525</v>
+        <v>0.7852880609990192</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>356</v>
@@ -5447,19 +5447,19 @@
         <v>377051</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>353664</v>
+        <v>355375</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>396785</v>
+        <v>397816</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7208226638076329</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6761123260428163</v>
+        <v>0.6793840259699432</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7585493568866535</v>
+        <v>0.7605208670475181</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>709</v>
@@ -5468,19 +5468,19 @@
         <v>753113</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>724580</v>
+        <v>723581</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>783704</v>
+        <v>781796</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7342722601461518</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7064532586636194</v>
+        <v>0.7054795918790695</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7640984438405755</v>
+        <v>0.7622377099812241</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>125673</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>109259</v>
+        <v>109682</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>142643</v>
+        <v>142630</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3944962073511438</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3429708761349707</v>
+        <v>0.3443009840462974</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4477676881733747</v>
+        <v>0.4477272598761934</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>101</v>
@@ -5593,19 +5593,19 @@
         <v>106819</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>90756</v>
+        <v>90488</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>124193</v>
+        <v>124864</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3186171372853883</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2707035739747976</v>
+        <v>0.2699049106177924</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.370438318046743</v>
+        <v>0.3724396397033375</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>236</v>
@@ -5614,19 +5614,19 @@
         <v>232492</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>209374</v>
+        <v>209008</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>257688</v>
+        <v>253195</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.355587948430139</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3202298474945344</v>
+        <v>0.3196700687582423</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3941245140011284</v>
+        <v>0.3872518682320186</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>192892</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>175922</v>
+        <v>175935</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>209306</v>
+        <v>208883</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6055037926488562</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5522323118266259</v>
+        <v>0.5522727401238066</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6570291238650294</v>
+        <v>0.6556990159537025</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>230</v>
@@ -5664,19 +5664,19 @@
         <v>228440</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>211066</v>
+        <v>210395</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>244503</v>
+        <v>244771</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6813828627146117</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.629561681953257</v>
+        <v>0.6275603602966623</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7292964260252024</v>
+        <v>0.7300950893822074</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>430</v>
@@ -5685,19 +5685,19 @@
         <v>421332</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>396136</v>
+        <v>400629</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>444450</v>
+        <v>444816</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.644412051569861</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6058754859988715</v>
+        <v>0.6127481317679813</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6797701525054655</v>
+        <v>0.6803299312417574</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>135493</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>117598</v>
+        <v>118423</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>155733</v>
+        <v>154357</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3682263903896335</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3195926422399243</v>
+        <v>0.3218346834645757</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4232317781228083</v>
+        <v>0.4194921609737445</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>89</v>
@@ -5810,19 +5810,19 @@
         <v>101321</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>85381</v>
+        <v>84149</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>122731</v>
+        <v>122088</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2630257924116734</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2216446065653374</v>
+        <v>0.2184463070546903</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3186042248426624</v>
+        <v>0.3169336175357324</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>220</v>
@@ -5831,19 +5831,19 @@
         <v>236815</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>211408</v>
+        <v>211959</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>267014</v>
+        <v>262797</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.314421106154569</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2806882565452621</v>
+        <v>0.2814193733014721</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3545166020253409</v>
+        <v>0.3489179995955056</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>232468</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>212228</v>
+        <v>213604</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>250363</v>
+        <v>249538</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6317736096103664</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5767682218771917</v>
+        <v>0.5805078390262555</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6804073577600753</v>
+        <v>0.6781653165354243</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>267</v>
@@ -5881,19 +5881,19 @@
         <v>283894</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>262484</v>
+        <v>263127</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>299834</v>
+        <v>301066</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7369742075883265</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6813957751573375</v>
+        <v>0.6830663824642675</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7783553934346626</v>
+        <v>0.7815536929453096</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>488</v>
@@ -5902,19 +5902,19 @@
         <v>516362</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>486163</v>
+        <v>490380</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>541769</v>
+        <v>541218</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.685578893845431</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.645483397974659</v>
+        <v>0.6510820004044943</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7193117434547379</v>
+        <v>0.7185806266985278</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>40143</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30537</v>
+        <v>29803</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52569</v>
+        <v>53202</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1923024327464232</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1462856549183356</v>
+        <v>0.1427698267072326</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2518270440068839</v>
+        <v>0.2548615345452831</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>40</v>
@@ -6027,19 +6027,19 @@
         <v>41778</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>29888</v>
+        <v>31062</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>54069</v>
+        <v>54715</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1911289544589679</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1367344285678506</v>
+        <v>0.142105202300125</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.247354830004225</v>
+        <v>0.2503133304807777</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>82</v>
@@ -6048,19 +6048,19 @@
         <v>81921</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>65955</v>
+        <v>67195</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>97975</v>
+        <v>98855</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1917021872327389</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1543395062458345</v>
+        <v>0.1572401232877847</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2292677952275846</v>
+        <v>0.2313280557001982</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>168607</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>156181</v>
+        <v>155548</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>178213</v>
+        <v>178947</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8076975672535769</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7481729559931156</v>
+        <v>0.7451384654547168</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8537143450816644</v>
+        <v>0.8572301732927671</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>183</v>
@@ -6098,19 +6098,19 @@
         <v>176809</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>164518</v>
+        <v>163872</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>188699</v>
+        <v>187525</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8088710455410321</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7526451699957752</v>
+        <v>0.7496866695192221</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8632655714321499</v>
+        <v>0.857894797699875</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>351</v>
@@ -6119,19 +6119,19 @@
         <v>345416</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>329362</v>
+        <v>328482</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>361382</v>
+        <v>360142</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8082978127672611</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7707322047724154</v>
+        <v>0.7686719442998019</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8456604937541656</v>
+        <v>0.8427598767122153</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>101559</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>85946</v>
+        <v>87152</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>117805</v>
+        <v>118191</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3976260714481547</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3364993861184553</v>
+        <v>0.341220767925748</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.461234145022643</v>
+        <v>0.4627430406723125</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>76</v>
@@ -6244,19 +6244,19 @@
         <v>81342</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>66029</v>
+        <v>67659</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>96735</v>
+        <v>97769</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3014960272976855</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2447386200995749</v>
+        <v>0.2507802040247101</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3585544539691681</v>
+        <v>0.3623843074957322</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>178</v>
@@ -6265,19 +6265,19 @@
         <v>182900</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>161839</v>
+        <v>161198</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>205920</v>
+        <v>204121</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3482449633643743</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.308143825505938</v>
+        <v>0.3069233114143535</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3920738928870818</v>
+        <v>0.3886484989570156</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>153854</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>137608</v>
+        <v>137222</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>169467</v>
+        <v>168261</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6023739285518454</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5387658549773572</v>
+        <v>0.5372569593276876</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6635006138815449</v>
+        <v>0.6587792320742519</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>184</v>
@@ -6315,19 +6315,19 @@
         <v>188451</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>173058</v>
+        <v>172024</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>203764</v>
+        <v>202134</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6985039727023145</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6414455460308318</v>
+        <v>0.6376156925042679</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.755261379900425</v>
+        <v>0.7492197959752899</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>333</v>
@@ -6336,19 +6336,19 @@
         <v>342306</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>319286</v>
+        <v>321085</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>363367</v>
+        <v>364008</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6517550366356257</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6079261071129181</v>
+        <v>0.6113515010429844</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.691856174494062</v>
+        <v>0.6930766885856464</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>302709</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>275273</v>
+        <v>277367</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>327683</v>
+        <v>329957</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4655347200056614</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4233408040318419</v>
+        <v>0.4265616302839683</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5039426778442601</v>
+        <v>0.5074393541234496</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>272</v>
@@ -6461,19 +6461,19 @@
         <v>294423</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>268003</v>
+        <v>267699</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>322465</v>
+        <v>322077</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4287032213912623</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3902345468992817</v>
+        <v>0.3897909615924398</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4695357448517643</v>
+        <v>0.4689701677439538</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>540</v>
@@ -6482,19 +6482,19 @@
         <v>597131</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>557838</v>
+        <v>559305</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>634082</v>
+        <v>635877</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4466157370041669</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4172265812796589</v>
+        <v>0.4183239838711422</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4742520858660712</v>
+        <v>0.4755949954592694</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>347530</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>322556</v>
+        <v>320282</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>374966</v>
+        <v>372872</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5344652799943386</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4960573221557397</v>
+        <v>0.4925606458765504</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5766591959681577</v>
+        <v>0.5734383697160318</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>370</v>
@@ -6532,19 +6532,19 @@
         <v>392352</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>364310</v>
+        <v>364698</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>418772</v>
+        <v>419076</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5712967786087377</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5304642551482357</v>
+        <v>0.5310298322560462</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6097654531007183</v>
+        <v>0.6102090384075601</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>677</v>
@@ -6553,19 +6553,19 @@
         <v>739883</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>702932</v>
+        <v>701137</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>779176</v>
+        <v>777709</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5533842629958331</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5257479141339289</v>
+        <v>0.5244050045407307</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5827734187203409</v>
+        <v>0.5816760161288578</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>303584</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>275666</v>
+        <v>275711</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>330506</v>
+        <v>329798</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3924652319727738</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3563745001496798</v>
+        <v>0.356431597878213</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4272700621572247</v>
+        <v>0.4263545186369896</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>228</v>
@@ -6678,19 +6678,19 @@
         <v>259690</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>232958</v>
+        <v>231973</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>289419</v>
+        <v>289498</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3154785183787306</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2830042414035027</v>
+        <v>0.2818070564074139</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3515947229534862</v>
+        <v>0.3516911591489862</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>523</v>
@@ -6699,19 +6699,19 @@
         <v>563273</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>526589</v>
+        <v>529473</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>602199</v>
+        <v>606502</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3527753450430324</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3298000666837654</v>
+        <v>0.331606189519669</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3771543289952932</v>
+        <v>0.3798494408044019</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>469946</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>443024</v>
+        <v>443732</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>497864</v>
+        <v>497819</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6075347680272263</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5727299378427751</v>
+        <v>0.5736454813630103</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6436254998503201</v>
+        <v>0.6435684021217868</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>524</v>
@@ -6749,19 +6749,19 @@
         <v>563471</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>533742</v>
+        <v>533663</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>590203</v>
+        <v>591188</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6845214816212694</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6484052770465139</v>
+        <v>0.6483088408510138</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7169957585964972</v>
+        <v>0.7181929435925861</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>974</v>
@@ -6770,19 +6770,19 @@
         <v>1033418</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>994492</v>
+        <v>990189</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1070102</v>
+        <v>1067218</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6472246549569676</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6228456710047068</v>
+        <v>0.6201505591955976</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6701999333162345</v>
+        <v>0.668393810480331</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>1233307</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1175723</v>
+        <v>1172326</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1288525</v>
+        <v>1286245</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3661746016955936</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3490777234842819</v>
+        <v>0.3480690443253909</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3825690033005749</v>
+        <v>0.3818921747083792</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1002</v>
@@ -6895,19 +6895,19 @@
         <v>1106757</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1047285</v>
+        <v>1053655</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1164151</v>
+        <v>1161616</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3136468105772449</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2967928495807023</v>
+        <v>0.2985981326533309</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.329911820625828</v>
+        <v>0.3291933258380119</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2190</v>
@@ -6916,19 +6916,19 @@
         <v>2340064</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2262419</v>
+        <v>2261572</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2421381</v>
+        <v>2417411</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3392991627975931</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3280409937916782</v>
+        <v>0.3279181109927571</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3510897375620266</v>
+        <v>0.3505141753951386</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>2134778</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2079560</v>
+        <v>2081840</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2192362</v>
+        <v>2195759</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6338253983044063</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6174309966994251</v>
+        <v>0.6181078252916208</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6509222765157181</v>
+        <v>0.6519309556746091</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2321</v>
@@ -6966,19 +6966,19 @@
         <v>2421916</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2364522</v>
+        <v>2367057</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2481388</v>
+        <v>2475018</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6863531894227551</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.670088179374172</v>
+        <v>0.670806674161988</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7032071504192975</v>
+        <v>0.701401867346669</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4340</v>
@@ -6987,19 +6987,19 @@
         <v>4556694</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4475377</v>
+        <v>4479347</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4634339</v>
+        <v>4635186</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6607008372024069</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6489102624379733</v>
+        <v>0.6494858246048615</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6719590062083217</v>
+        <v>0.672081889007243</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>183079</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>164077</v>
+        <v>163814</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>201457</v>
+        <v>199520</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5741932581413973</v>
+        <v>0.5741932581413974</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5145991788888836</v>
+        <v>0.5137736611699898</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6318327200599037</v>
+        <v>0.6257573458911377</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>350</v>
@@ -7356,19 +7356,19 @@
         <v>205661</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>190685</v>
+        <v>191882</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>219574</v>
+        <v>219452</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.650699987555709</v>
+        <v>0.6506999875557091</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6033167087150398</v>
+        <v>0.6071045880911959</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6947196452815273</v>
+        <v>0.694335670216204</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>548</v>
@@ -7377,19 +7377,19 @@
         <v>388740</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>366695</v>
+        <v>366787</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>412629</v>
+        <v>411413</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6122788471616133</v>
+        <v>0.6122788471616132</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5775585265697544</v>
+        <v>0.5777025412352143</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6499053245352453</v>
+        <v>0.647989870224937</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>135766</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>117388</v>
+        <v>119325</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>154768</v>
+        <v>155031</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4258067418586027</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3681672799400958</v>
+        <v>0.3742426541088621</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4854008211111164</v>
+        <v>0.4862263388300102</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>188</v>
@@ -7427,19 +7427,19 @@
         <v>110400</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>96487</v>
+        <v>96609</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>125376</v>
+        <v>124179</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3493000124442909</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3052803547184729</v>
+        <v>0.3056643297837959</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3966832912849602</v>
+        <v>0.392895411908804</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>321</v>
@@ -7448,19 +7448,19 @@
         <v>246166</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>222277</v>
+        <v>223493</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>268211</v>
+        <v>268119</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3877211528383868</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3500946754647545</v>
+        <v>0.3520101297750629</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4224414734302456</v>
+        <v>0.4222974587647857</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>123519</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>102347</v>
+        <v>101446</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>149134</v>
+        <v>146641</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2383245643099585</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1974745044141955</v>
+        <v>0.1957343954410065</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2877473230567039</v>
+        <v>0.2829367785392983</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>179</v>
@@ -7573,19 +7573,19 @@
         <v>122690</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>106349</v>
+        <v>106215</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>142781</v>
+        <v>139636</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2250469910764396</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1950737930415298</v>
+        <v>0.1948275643707581</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.261898818160109</v>
+        <v>0.2561310154232752</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>272</v>
@@ -7594,19 +7594,19 @@
         <v>246209</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>218022</v>
+        <v>219398</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>278092</v>
+        <v>277421</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2315178975658821</v>
+        <v>0.2315178975658822</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.20501283497231</v>
+        <v>0.2063061002416295</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.261498530140869</v>
+        <v>0.2608666975967762</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>394763</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>369148</v>
+        <v>371641</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>415935</v>
+        <v>416836</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7616754356900415</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7122526769432962</v>
+        <v>0.7170632214607017</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8025254955858044</v>
+        <v>0.8042656045589934</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>536</v>
@@ -7644,19 +7644,19 @@
         <v>422485</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>402394</v>
+        <v>405539</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>438826</v>
+        <v>438960</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7749530089235604</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7381011818398909</v>
+        <v>0.7438689845767249</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8049262069584702</v>
+        <v>0.805172435629242</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>820</v>
@@ -7665,19 +7665,19 @@
         <v>817248</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>785365</v>
+        <v>786036</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>845435</v>
+        <v>844059</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7684821024341179</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7385014698591309</v>
+        <v>0.7391333024032239</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.79498716502769</v>
+        <v>0.7936938997583705</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>123258</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>107360</v>
+        <v>106465</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>140488</v>
+        <v>139835</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3900669447832691</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3397546272937629</v>
+        <v>0.3369234084394048</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4445932872488362</v>
+        <v>0.4425261994511769</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>158</v>
@@ -7790,19 +7790,19 @@
         <v>107134</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>92294</v>
+        <v>92279</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>123282</v>
+        <v>122897</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3011430771518517</v>
+        <v>0.3011430771518518</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2594278801697935</v>
+        <v>0.2593870651274263</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3465339464078843</v>
+        <v>0.3454524540550304</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>296</v>
@@ -7811,19 +7811,19 @@
         <v>230393</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>208464</v>
+        <v>208402</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>252452</v>
+        <v>255170</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3429730417493584</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3103292605830265</v>
+        <v>0.3102372359714267</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3758115897469509</v>
+        <v>0.3798580121678678</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>192735</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>175505</v>
+        <v>176158</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>208633</v>
+        <v>209528</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6099330552167308</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5554067127511639</v>
+        <v>0.557473800548823</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6602453727062372</v>
+        <v>0.663076591560595</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>377</v>
@@ -7861,19 +7861,19 @@
         <v>248624</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>232476</v>
+        <v>232861</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>263464</v>
+        <v>263479</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6988569228481484</v>
+        <v>0.6988569228481483</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6534660535921161</v>
+        <v>0.6545475459449697</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7405721198302067</v>
+        <v>0.7406129348725738</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>599</v>
@@ -7882,19 +7882,19 @@
         <v>441359</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>419300</v>
+        <v>416582</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>463288</v>
+        <v>463350</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6570269582506416</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6241884102530488</v>
+        <v>0.6201419878321323</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6896707394169735</v>
+        <v>0.6897627640285738</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>117175</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>93846</v>
+        <v>96848</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>140181</v>
+        <v>143350</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3153670212459778</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2525795510700378</v>
+        <v>0.260658981981405</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3772866544643633</v>
+        <v>0.3858156780235854</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>143</v>
@@ -8007,19 +8007,19 @@
         <v>97275</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>81568</v>
+        <v>82670</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>116090</v>
+        <v>114410</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2305315585656703</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1933071777891671</v>
+        <v>0.1959181326546953</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2751199109408191</v>
+        <v>0.2711385563803901</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>243</v>
@@ -8028,19 +8028,19 @@
         <v>214450</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>190797</v>
+        <v>187022</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>246317</v>
+        <v>244123</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2702545662117102</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.240445928552953</v>
+        <v>0.2356887945836437</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3104141822466102</v>
+        <v>0.3076491633927814</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>254376</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>231370</v>
+        <v>228201</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>277705</v>
+        <v>274703</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6846329787540222</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6227133455356365</v>
+        <v>0.6141843219764146</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7474204489299622</v>
+        <v>0.7393410180185948</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>456</v>
@@ -8078,19 +8078,19 @@
         <v>324686</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>305871</v>
+        <v>307551</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>340393</v>
+        <v>339291</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7694684414343297</v>
+        <v>0.7694684414343298</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7248800890591807</v>
+        <v>0.7288614436196099</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8066928222108327</v>
+        <v>0.8040818673453048</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>647</v>
@@ -8099,19 +8099,19 @@
         <v>579062</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>547195</v>
+        <v>549389</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>602715</v>
+        <v>606490</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7297454337882896</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6895858177533899</v>
+        <v>0.6923508366072187</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7595540714470476</v>
+        <v>0.7643112054163563</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>32244</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23907</v>
+        <v>24835</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>41407</v>
+        <v>41489</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1567782614849575</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1162423112902082</v>
+        <v>0.1207569783105111</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2013334599054427</v>
+        <v>0.2017323729316831</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>74</v>
@@ -8224,19 +8224,19 @@
         <v>34208</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27102</v>
+        <v>27214</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42869</v>
+        <v>42337</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1513529029681869</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1199149101076526</v>
+        <v>0.1204075123236353</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1896769724898113</v>
+        <v>0.1873223789038097</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>121</v>
@@ -8245,19 +8245,19 @@
         <v>66452</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>55680</v>
+        <v>55193</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>79400</v>
+        <v>77863</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1539377109849768</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1289857609501709</v>
+        <v>0.1278575162079292</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1839330324526167</v>
+        <v>0.1803734776376505</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>173421</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>164258</v>
+        <v>164176</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>181758</v>
+        <v>180830</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8432217385150425</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7986665400945573</v>
+        <v>0.798267627068317</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8837576887097922</v>
+        <v>0.8792430216894891</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>415</v>
@@ -8295,19 +8295,19 @@
         <v>191805</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>183144</v>
+        <v>183676</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>198911</v>
+        <v>198799</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8486470970318131</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8103230275101884</v>
+        <v>0.8126776210961902</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8800850898923472</v>
+        <v>0.8795924876763647</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>647</v>
@@ -8316,19 +8316,19 @@
         <v>365226</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>352278</v>
+        <v>353815</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>375998</v>
+        <v>376485</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8460622890150231</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8160669675473834</v>
+        <v>0.8196265223623495</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.871014239049829</v>
+        <v>0.8721424837920708</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>89817</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>75236</v>
+        <v>76484</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>103529</v>
+        <v>103715</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3317879609569821</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2779251377389723</v>
+        <v>0.2825330058898621</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3824388607549281</v>
+        <v>0.3831266789114396</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>186</v>
@@ -8441,19 +8441,19 @@
         <v>104747</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>92506</v>
+        <v>91695</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>117782</v>
+        <v>118614</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3971438798833717</v>
+        <v>0.3971438798833715</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3507321003660011</v>
+        <v>0.3476581550231857</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4465680065571832</v>
+        <v>0.4497223991990461</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>320</v>
@@ -8462,19 +8462,19 @@
         <v>194564</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>175834</v>
+        <v>176345</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>215215</v>
+        <v>214547</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3640405723901437</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3289964416088891</v>
+        <v>0.3299510143830233</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4026805220745717</v>
+        <v>0.4014294156126648</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>180890</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>167178</v>
+        <v>166992</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>195471</v>
+        <v>194223</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.668212039043018</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6175611392450721</v>
+        <v>0.6168733210885604</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7220748622610279</v>
+        <v>0.7174669941101379</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>274</v>
@@ -8512,19 +8512,19 @@
         <v>159003</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>145968</v>
+        <v>145136</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>171244</v>
+        <v>172055</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6028561201166286</v>
+        <v>0.6028561201166283</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5534319934428171</v>
+        <v>0.5502776008009536</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6492678996339993</v>
+        <v>0.6523418449768138</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>511</v>
@@ -8533,19 +8533,19 @@
         <v>339893</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>319242</v>
+        <v>319910</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>358623</v>
+        <v>358112</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6359594276098561</v>
+        <v>0.6359594276098562</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5973194779254281</v>
+        <v>0.5985705843873352</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6710035583911107</v>
+        <v>0.6700489856169767</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>284252</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>254402</v>
+        <v>254085</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>313915</v>
+        <v>314177</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4032150543685777</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3608725699714926</v>
+        <v>0.3604232988418964</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4452920463118174</v>
+        <v>0.4456645911522474</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>371</v>
@@ -8658,19 +8658,19 @@
         <v>311066</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>286171</v>
+        <v>283694</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>337824</v>
+        <v>336539</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4084638557815747</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3757744082997772</v>
+        <v>0.3725215273393297</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4436009133091892</v>
+        <v>0.4419137216566644</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>603</v>
@@ -8679,19 +8679,19 @@
         <v>595318</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>556543</v>
+        <v>556907</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>635503</v>
+        <v>637026</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.4059407184670632</v>
+        <v>0.4059407184670631</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3795003168565613</v>
+        <v>0.3797488039169926</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4333426869727184</v>
+        <v>0.4343810168366461</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>420712</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>391049</v>
+        <v>390787</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>450562</v>
+        <v>450879</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5967849456314223</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5547079536881827</v>
+        <v>0.5543354088477526</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6391274300285074</v>
+        <v>0.6395767011581035</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>577</v>
@@ -8729,19 +8729,19 @@
         <v>450484</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>423726</v>
+        <v>425011</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>475379</v>
+        <v>477856</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.5915361442184254</v>
+        <v>0.5915361442184253</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5563990866908107</v>
+        <v>0.5580862783433356</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6242255917002228</v>
+        <v>0.6274784726606704</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>934</v>
@@ -8750,19 +8750,19 @@
         <v>871196</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>831011</v>
+        <v>829488</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>909971</v>
+        <v>909607</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.5940592815329369</v>
+        <v>0.5940592815329367</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5666573130272816</v>
+        <v>0.5656189831633541</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6204996831434386</v>
+        <v>0.6202511960830076</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>289159</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>262902</v>
+        <v>261374</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>319759</v>
+        <v>318353</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.3634139913764816</v>
+        <v>0.3634139913764815</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3304138270536101</v>
+        <v>0.3284932654044556</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4018724078927248</v>
+        <v>0.4001046795026257</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>397</v>
@@ -8875,19 +8875,19 @@
         <v>297868</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>272787</v>
+        <v>272829</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>322865</v>
+        <v>323086</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3617615019611025</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3313005171399651</v>
+        <v>0.331351554118172</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3921197874812187</v>
+        <v>0.3923886033079008</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>703</v>
@@ -8896,19 +8896,19 @@
         <v>587028</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>550899</v>
+        <v>551490</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>629112</v>
+        <v>624246</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3625736060203142</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3402592232370771</v>
+        <v>0.3406240907844215</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3885664850241486</v>
+        <v>0.3855612521362868</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>506515</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>475915</v>
+        <v>477321</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>532772</v>
+        <v>534300</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6365860086235186</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5981275921072755</v>
+        <v>0.5998953204973744</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6695861729463903</v>
+        <v>0.6715067345955444</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>656</v>
@@ -8946,19 +8946,19 @@
         <v>525515</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>500518</v>
+        <v>500297</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>550596</v>
+        <v>550554</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6382384980388974</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6078802125187814</v>
+        <v>0.6076113966920993</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6686994828600348</v>
+        <v>0.668648445881828</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1110</v>
@@ -8967,19 +8967,19 @@
         <v>1032030</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>989946</v>
+        <v>994812</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1068159</v>
+        <v>1067568</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.6374263939796857</v>
+        <v>0.6374263939796858</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6114335149758513</v>
+        <v>0.6144387478637134</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.659740776762923</v>
+        <v>0.6593759092155786</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>1242504</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1184066</v>
+        <v>1179511</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1311112</v>
+        <v>1309941</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.3548306601547617</v>
+        <v>0.3548306601547618</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3381419319122425</v>
+        <v>0.336841231192187</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3744234534685325</v>
+        <v>0.3740889906060939</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1858</v>
@@ -9092,19 +9092,19 @@
         <v>1280649</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1225276</v>
+        <v>1227183</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1326367</v>
+        <v>1332685</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.3448489100775312</v>
+        <v>0.3448489100775313</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3299383697459097</v>
+        <v>0.3304517592286549</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3571596833465077</v>
+        <v>0.3588611141365993</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3106</v>
@@ -9113,19 +9113,19 @@
         <v>2523153</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2445797</v>
+        <v>2449622</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2598370</v>
+        <v>2609025</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3496931644556341</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3389720938003011</v>
+        <v>0.339502133854407</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3601177515336724</v>
+        <v>0.3615944727619541</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>2259178</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2190570</v>
+        <v>2191741</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2317616</v>
+        <v>2322171</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.6451693398452382</v>
+        <v>0.6451693398452384</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6255765465314675</v>
+        <v>0.6259110093939066</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6618580680877575</v>
+        <v>0.6631587688078134</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3479</v>
@@ -9163,19 +9163,19 @@
         <v>2433003</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2387285</v>
+        <v>2380967</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2488376</v>
+        <v>2486469</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.6551510899224687</v>
+        <v>0.6551510899224688</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6428403166534924</v>
+        <v>0.6411388858634007</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6700616302540903</v>
+        <v>0.669548240771345</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5589</v>
@@ -9184,19 +9184,19 @@
         <v>4692182</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4616965</v>
+        <v>4606310</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4769538</v>
+        <v>4765713</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.6503068355443659</v>
+        <v>0.650306835544366</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6398822484663275</v>
+        <v>0.6384055272380459</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6610279061996992</v>
+        <v>0.6604978661455929</v>
       </c>
     </row>
     <row r="30">
